--- a/pabi_bank_statement_reconcile/template/bank_import_cheque.xlsx
+++ b/pabi_bank_statement_reconcile/template/bank_import_cheque.xlsx
@@ -66,11 +66,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -87,13 +88,26 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -130,8 +144,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -159,46 +177,46 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.53061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.4132653061225"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.56122448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.00510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.0969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.87244897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.24489795918367"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.70408163265306"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.0255102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.6275510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="n">
-        <v>2</v>
+        <v>1212134</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>7</v>
@@ -206,7 +224,7 @@
       <c r="D2" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="0" t="s">
@@ -215,7 +233,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="n">
-        <v>3</v>
+        <v>2121124</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>10</v>
@@ -223,7 +241,7 @@
       <c r="D3" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="0" t="s">

--- a/pabi_bank_statement_reconcile/template/bank_import_cheque.xlsx
+++ b/pabi_bank_statement_reconcile/template/bank_import_cheque.xlsx
@@ -176,19 +176,20 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4:G5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.0969387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.87244897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.24489795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.0255102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.6275510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.79081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.484693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.21428571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.39795918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5714285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.48469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -215,9 +216,6 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="n">
-        <v>1212134</v>
-      </c>
       <c r="C2" s="0" t="s">
         <v>7</v>
       </c>
